--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,63 +443,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1. The system must have a well-organized and user-centric orchestration framework for effective management of files and output information.</t>
+          <t>1. Rule 1: The system must comply with data privacy regulations while handling Aadhaar and PAN card details for OCR and verification.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2. Users must log in using Single Sign-On (SSO) when accessing the system. This enhances security and streamlines the authentication process.</t>
+          <t>2. Rule 2: The system must comply with credit bureau (CIBIL) regulations while fetching credit score.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3. The system must support role-based access. Managers should have access to cases, including both upload and download functionalities. Admin access should be reserved for select team members, providing comprehensive access to the entire application.</t>
+          <t>3. Rule 3: The AI-based eligibility and risk assessment module must be transparent and explainable, adhering to AI ethics and regulations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4. The system must maintain a comprehensive audit trail to track user activities within the application. This includes capturing user-specific information such as usernames, date and time stamps, and the type of activities performed.</t>
+          <t>4. Rule 4: The system must comply with KYC regulations during real-time document verification.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5. The system must collect log data to monitor the number of active users and track individual usernames. Performance metrics of the application must also be recorded.</t>
+          <t>5. Rule 5: The OTP-based authentication for loan sanction and e-agreement signing must comply with two-factor authentication regulations.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6. User authentication must be implemented using secure protocols. Only authenticated users with proper credentials should be able to access the system.</t>
+          <t>6. Rule 6: The system must comply with banking regulations during integration with core banking for disbursement.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7. The system must maintain a minimum uptime, excluding scheduled maintenance, to ensure continuous availability and accessibility for users.</t>
+          <t>7. Rule 7: The e-sign integration using DigiLocker + Aadhaar eKYC must comply with digital signature regulations.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8. The system must adhere to data protection legislation as outlined in ey.com/privacy.</t>
+          <t>8. Rule 8: The system must comply with language regulations, supporting both English and Hindi.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9. The system must not practice law where prohibited by local laws.</t>
+          <t>9. Rule 9: The system must comply with banking regulations, disbursing loans only through verified bank accounts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10. Rule 10: The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11. Rule 11: The system must ensure data security and privacy, especially with the integration of external APIs such as the credit bureau and DigiLocker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12. Rule 12: The system must comply with accessibility regulations, ensuring the web app is responsive and user-friendly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13. Rule 13: The system must comply with data retention and deletion policies, particularly with sensitive customer data such as Aadhaar, PAN, and bank account details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14. Rule 14: The system must comply with audit trail requirements, maintaining a record of all actions performed within the system.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,98 +443,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1. Rule 1: The system must comply with data privacy regulations while handling Aadhaar and PAN card details for OCR and verification.</t>
+          <t>NFR Compliance Rules:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2. Rule 2: The system must comply with credit bureau (CIBIL) regulations while fetching credit score.</t>
+          <t>1. The system must be compliant with data privacy and protection laws, ensuring that all customer data, including Aadhaar and PAN details, are securely stored and processed.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3. Rule 3: The AI-based eligibility and risk assessment module must be transparent and explainable, adhering to AI ethics and regulations.</t>
+          <t>2. The system must comply with the regulations of the credit bureau (CIBIL) when fetching credit scores.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4. Rule 4: The system must comply with KYC regulations during real-time document verification.</t>
+          <t>3. The AI-based eligibility and risk assessment module must comply with fair lending laws and not discriminate based on prohibited factors.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5. Rule 5: The OTP-based authentication for loan sanction and e-agreement signing must comply with two-factor authentication regulations.</t>
+          <t>4. The KYC document verification process must comply with the guidelines laid down by the Reserve Bank of India (RBI) and other regulatory bodies.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6. Rule 6: The system must comply with banking regulations during integration with core banking for disbursement.</t>
+          <t>5. The OTP-based authentication for loan sanction and e-agreement signing must comply with the standards set by the regulatory bodies for digital signatures.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7. Rule 7: The e-sign integration using DigiLocker + Aadhaar eKYC must comply with digital signature regulations.</t>
+          <t>6. The system must ensure compliance with core banking integration standards and protocols.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8. Rule 8: The system must comply with language regulations, supporting both English and Hindi.</t>
+          <t>7. The system must comply with the language requirements, supporting both English and Hindi.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9. Rule 9: The system must comply with banking regulations, disbursing loans only through verified bank accounts.</t>
+          <t>8. The system must ensure compliance with the regulations for loan disbursement through verified bank accounts only.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10. Rule 10: The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
+          <t>9. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11. Rule 11: The system must ensure data security and privacy, especially with the integration of external APIs such as the credit bureau and DigiLocker.</t>
+          <t>10. The system must ensure compliance with the timeline as per the project schedule.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12. Rule 12: The system must comply with accessibility regulations, ensuring the web app is responsive and user-friendly.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13. Rule 13: The system must comply with data retention and deletion policies, particularly with sensitive customer data such as Aadhaar, PAN, and bank account details.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>14. Rule 14: The system must comply with audit trail requirements, maintaining a record of all actions performed within the system.</t>
+          <t>11. The system must meet the success metrics in compliance with the business objectives, including reducing TAT, reducing manual data entry, and increasing accuracy in eligibility checks.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,77 +450,84 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. The system must be compliant with data privacy and protection laws, ensuring that all customer data, including Aadhaar and PAN details, are securely stored and processed.</t>
+          <t>1. The system must support Aadhaar/PAN card OCR and verification in compliance with UIDAI and Income Tax Department regulations.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. The system must comply with the regulations of the credit bureau (CIBIL) when fetching credit scores.</t>
+          <t>2. The system must ensure secure integration with credit bureaus (CIBIL, Experian) as per the Credit Information Companies (Regulation) Act, 2005.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3. The AI-based eligibility and risk assessment module must comply with fair lending laws and not discriminate based on prohibited factors.</t>
+          <t>3. The AI-based eligibility and risk assessment module must comply with the principles of fairness, transparency, and non-discrimination as per the AI Ethics Guidelines.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4. The KYC document verification process must comply with the guidelines laid down by the Reserve Bank of India (RBI) and other regulatory bodies.</t>
+          <t>4. Real-time KYC document verification (OCR + face match) must be in compliance with the Reserve Bank of India (RBI) KYC guidelines.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5. The OTP-based authentication for loan sanction and e-agreement signing must comply with the standards set by the regulatory bodies for digital signatures.</t>
+          <t>5. The system must ensure secure OTP-based authentication for loan sanction and e-agreement signing in line with the Information Technology Act, 2000.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6. The system must ensure compliance with core banking integration standards and protocols.</t>
+          <t>6. The system must ensure secure integration with core banking for disbursement as per the Banking Regulation Act, 1949.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7. The system must comply with the language requirements, supporting both English and Hindi.</t>
+          <t>7. The E-sign integration using DigiLocker + Aadhaar eKYC must comply with the provisions of the Information Technology Act, 2000 and the Aadhaar Act, 2016.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8. The system must ensure compliance with the regulations for loan disbursement through verified bank accounts only.</t>
+          <t>8. The system must ensure data privacy and protection in line with the Personal Data Protection Bill, 2019.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
+          <t>9. The system must support English and Hindi languages as per the Official Languages Act, 1963.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10. The system must ensure compliance with the timeline as per the project schedule.</t>
+          <t>10. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11. The system must meet the success metrics in compliance with the business objectives, including reducing TAT, reducing manual data entry, and increasing accuracy in eligibility checks.</t>
+          <t>11. The system must ensure that loan disbursement is only through verified bank accounts as per the Prevention of Money Laundering Act, 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12. The system must be designed to be accessible to all users, including those with disabilities, in compliance with the Rights of Persons with Disabilities Act, 2016.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,91 +443,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NFR Compliance Rules:</t>
+          <t>Based on the provided BRD content, the following Non-Functional Requirements (NFR) compliance rules can be derived:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. The system must support Aadhaar/PAN card OCR and verification in compliance with UIDAI and Income Tax Department regulations.</t>
+          <t>1. The system must be compliant with all data privacy regulations, including the handling and storage of Aadhaar and PAN card information.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. The system must ensure secure integration with credit bureaus (CIBIL, Experian) as per the Credit Information Companies (Regulation) Act, 2005.</t>
+          <t>2. The system must ensure secure integration with external systems such as credit bureaus (CIBIL, Experian) and core banking systems, adhering to all relevant data security standards.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3. The AI-based eligibility and risk assessment module must comply with the principles of fairness, transparency, and non-discrimination as per the AI Ethics Guidelines.</t>
+          <t>3. The AI-based eligibility and risk assessment module should comply with fair lending and non-discrimination laws.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4. Real-time KYC document verification (OCR + face match) must be in compliance with the Reserve Bank of India (RBI) KYC guidelines.</t>
+          <t>4. The system must comply with RBI guidelines for digital onboarding and loan disbursement.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5. The system must ensure secure OTP-based authentication for loan sanction and e-agreement signing in line with the Information Technology Act, 2000.</t>
+          <t>5. The system must ensure secure and compliant handling of OTPs for e-agreement signing and loan sanctioning.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6. The system must ensure secure integration with core banking for disbursement as per the Banking Regulation Act, 1949.</t>
+          <t>6. The system must comply with all regulations related to KYC document verification, including OCR and face match processes.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7. The E-sign integration using DigiLocker + Aadhaar eKYC must comply with the provisions of the Information Technology Act, 2000 and the Aadhaar Act, 2016.</t>
+          <t>7. The system should support accessibility standards to ensure it is usable by a wide range of customers.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8. The system must ensure data privacy and protection in line with the Personal Data Protection Bill, 2019.</t>
+          <t>8. The system must be designed to handle potential future compliance changes due to upcoming RBI guidelines.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9. The system must support English and Hindi languages as per the Official Languages Act, 1963.</t>
+          <t>9. The system must ensure secure and compliant handling of customer data in the dashboard feature.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
+          <t>10. The system must comply with language regulations, supporting both English and Hindi.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11. The system must ensure that loan disbursement is only through verified bank accounts as per the Prevention of Money Laundering Act, 2002.</t>
+          <t>11. The system must ensure that loan disbursement is only done through verified bank accounts, in compliance with anti-money laundering regulations.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12. The system must be designed to be accessible to all users, including those with disabilities, in compliance with the Rights of Persons with Disabilities Act, 2016.</t>
+          <t>12. The system must comply with all regulations related to e-signature, including integration with DigiLocker and Aadhaar eKYC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13. The system must be designed to ensure it can meet the target success metrics while remaining compliant with all relevant regulations.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,98 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Based on the provided BRD content, the following Non-Functional Requirements (NFR) compliance rules can be derived:</t>
+          <t>1. Rule 1: The system must comply with all data privacy and protection regulations while collecting, storing, and processing Aadhaar and PAN card details of customers.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. The system must be compliant with all data privacy regulations, including the handling and storage of Aadhaar and PAN card information.</t>
+          <t>2. Rule 2: The system must ensure secure integration with credit bureaus (CIBIL) for fetching credit scores, adhering to all regulatory requirements and guidelines.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. The system must ensure secure integration with external systems such as credit bureaus (CIBIL, Experian) and core banking systems, adhering to all relevant data security standards.</t>
+          <t>3. Rule 3: The AI-based eligibility and risk assessment module must be transparent, fair, and unbiased, complying with all relevant AI ethics guidelines and regulations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3. The AI-based eligibility and risk assessment module should comply with fair lending and non-discrimination laws.</t>
+          <t>4. Rule 4: The KYC document verification process must comply with all regulatory requirements for KYC verification, including OCR and face match technologies.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4. The system must comply with RBI guidelines for digital onboarding and loan disbursement.</t>
+          <t>5. Rule 5: The OTP-based authentication for loan sanction and e-agreement signing must comply with all relevant cybersecurity and data protection regulations.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5. The system must ensure secure and compliant handling of OTPs for e-agreement signing and loan sanctioning.</t>
+          <t>6. Rule 6: The system must ensure secure integration with the core banking system for loan disbursement, complying with all relevant banking and financial regulations.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6. The system must comply with all regulations related to KYC document verification, including OCR and face match processes.</t>
+          <t>7. Rule 7: The system must comply with all relevant language regulations, supporting both English and Hindi.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7. The system should support accessibility standards to ensure it is usable by a wide range of customers.</t>
+          <t>8. Rule 8: The system must ensure that loan disbursement is only done through verified bank accounts, complying with all relevant banking and financial regulations.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8. The system must be designed to handle potential future compliance changes due to upcoming RBI guidelines.</t>
+          <t>9. Rule 9: The system must be prepared to adapt to any compliance changes due to upcoming RBI guidelines.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9. The system must ensure secure and compliant handling of customer data in the dashboard feature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10. The system must comply with language regulations, supporting both English and Hindi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11. The system must ensure that loan disbursement is only done through verified bank accounts, in compliance with anti-money laundering regulations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12. The system must comply with all regulations related to e-signature, including integration with DigiLocker and Aadhaar eKYC.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>13. The system must be designed to ensure it can meet the target success metrics while remaining compliant with all relevant regulations.</t>
+          <t>10. Rule 10: The system must ensure that all data shared with the Business Analyst for deriving the BRD complies with all relevant data sharing and privacy regulations.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,70 +443,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1. Rule 1: The system must comply with all data privacy and protection regulations while collecting, storing, and processing Aadhaar and PAN card details of customers.</t>
+          <t>NFR Compliance Rules:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2. Rule 2: The system must ensure secure integration with credit bureaus (CIBIL) for fetching credit scores, adhering to all regulatory requirements and guidelines.</t>
+          <t>1. The system must ensure that all personal data, including Aadhaar and PAN details, are stored and processed in compliance with the Data Protection Act and other relevant privacy regulations.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3. Rule 3: The AI-based eligibility and risk assessment module must be transparent, fair, and unbiased, complying with all relevant AI ethics guidelines and regulations.</t>
+          <t>2. The system must comply with the standards set by the credit bureau (CIBIL) for fetching credit scores.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4. Rule 4: The KYC document verification process must comply with all regulatory requirements for KYC verification, including OCR and face match technologies.</t>
+          <t>3. The AI-based eligibility and risk assessment module must adhere to the ethical guidelines for AI use, ensuring transparency, fairness, and non-discrimination.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5. Rule 5: The OTP-based authentication for loan sanction and e-agreement signing must comply with all relevant cybersecurity and data protection regulations.</t>
+          <t>4. The real-time KYC document verification process must comply with the regulatory requirements of the Reserve Bank of India (RBI) and other relevant authorities.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6. Rule 6: The system must ensure secure integration with the core banking system for loan disbursement, complying with all relevant banking and financial regulations.</t>
+          <t>5. The OTP-based authentication for loan sanction and e-agreement signing must comply with the two-factor authentication guidelines set by the RBI.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7. Rule 7: The system must comply with all relevant language regulations, supporting both English and Hindi.</t>
+          <t>6. The system must comply with the core banking integration standards for loan disbursement.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8. Rule 8: The system must ensure that loan disbursement is only done through verified bank accounts, complying with all relevant banking and financial regulations.</t>
+          <t>7. The system must ensure that the E-sign integration using DigiLocker + Aadhaar eKYC is in compliance with the Electronic Signature Regulations.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9. Rule 9: The system must be prepared to adapt to any compliance changes due to upcoming RBI guidelines.</t>
+          <t>8. The system must comply with language regulations, providing support for both English and Hindi.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10. Rule 10: The system must ensure that all data shared with the Business Analyst for deriving the BRD complies with all relevant data sharing and privacy regulations.</t>
+          <t>9. The system must comply with the regulatory requirements for loan disbursement through verified bank accounts only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11. The system must ensure that the reduction in TAT and manual data entry, as well as the accuracy in eligibility checks, comply with the quality standards set by the management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12. The system must comply with the timeline set for requirements finalization, development kickoff, UAT, and Go-Live.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13. The system must comply with any other relevant regulatory and compliance needs not explicitly mentioned in the BRD.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,91 +450,98 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. The system must ensure that all personal data, including Aadhaar and PAN details, are stored and processed in compliance with the Data Protection Act and other relevant privacy regulations.</t>
+          <t>1. The system must be able to handle the load of simultaneous loan applications without any performance degradation. The system should be tested for peak load scenarios.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. The system must comply with the standards set by the credit bureau (CIBIL) for fetching credit scores.</t>
+          <t>2. The system must ensure data privacy and security, adhering to the Data Protection Act. All customer data, including Aadhaar/PAN details, credit scores, and KYC documents, must be encrypted and securely stored.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3. The AI-based eligibility and risk assessment module must adhere to the ethical guidelines for AI use, ensuring transparency, fairness, and non-discrimination.</t>
+          <t>3. The system must comply with the RBI guidelines for digital lending platforms. Any changes in the guidelines must be incorporated into the system in a timely manner.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4. The real-time KYC document verification process must comply with the regulatory requirements of the Reserve Bank of India (RBI) and other relevant authorities.</t>
+          <t>4. The system must ensure accurate and real-time verification of KYC documents. The OCR and face match technology should have a minimum accuracy of 95%.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5. The OTP-based authentication for loan sanction and e-agreement signing must comply with the two-factor authentication guidelines set by the RBI.</t>
+          <t>5. The system must provide an OTP-based authentication for loan sanction and e-agreement signing. The OTP should be generated and delivered within 30 seconds.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6. The system must comply with the core banking integration standards for loan disbursement.</t>
+          <t>6. The system must be integrated with the core banking system for loan disbursement. The integration should be secure and seamless, ensuring real-time data exchange.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7. The system must ensure that the E-sign integration using DigiLocker + Aadhaar eKYC is in compliance with the Electronic Signature Regulations.</t>
+          <t>7. The system must be able to fetch credit scores from Experian or CIBIL accurately and in real-time.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8. The system must comply with language regulations, providing support for both English and Hindi.</t>
+          <t>8. The system must support both English and Hindi languages. All features, instructions, and communications should be available in both languages.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9. The system must comply with the regulatory requirements for loan disbursement through verified bank accounts only.</t>
+          <t>9. The system must ensure that loan disbursement is only done through verified bank accounts. The verification process should be robust and secure.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines.</t>
+          <t>10. The system must be responsive and compatible with different devices and browsers. The web app should load within 3 seconds on any device or browser.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11. The system must ensure that the reduction in TAT and manual data entry, as well as the accuracy in eligibility checks, comply with the quality standards set by the management.</t>
+          <t>11. The system must ensure that the TAT for loan application and approval is reduced to 2 hours. The TAT should be measured from the time of application submission to the time of loan approval.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12. The system must comply with the timeline set for requirements finalization, development kickoff, UAT, and Go-Live.</t>
+          <t>12. The system must ensure a minimum of 80% reduction in manual data entry. The reduction should be measured by comparing the manual data entry before and after the implementation of the system.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13. The system must comply with any other relevant regulatory and compliance needs not explicitly mentioned in the BRD.</t>
+          <t>13. The system must ensure a minimum of 90% accuracy in eligibility checks. The accuracy should be measured by comparing the system's eligibility check results with manual checks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14. The system must be ready for UAT by 1 June 2025 and go live by 1 July 2025. Any delays in these timelines must be escalated and addressed promptly.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,98 +450,105 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. The system must be able to handle the load of simultaneous loan applications without any performance degradation. The system should be tested for peak load scenarios.</t>
+          <t>1. The system must be able to handle a high volume of simultaneous loan applications without performance degradation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. The system must ensure data privacy and security, adhering to the Data Protection Act. All customer data, including Aadhaar/PAN details, credit scores, and KYC documents, must be encrypted and securely stored.</t>
+          <t>2. The system must ensure the privacy and security of customer data, including Aadhaar/PAN details, credit scores, and KYC documents. Compliance with the Indian IT Act 2000 and the Aadhaar Act 2016 is mandatory.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3. The system must comply with the RBI guidelines for digital lending platforms. Any changes in the guidelines must be incorporated into the system in a timely manner.</t>
+          <t>3. The system must have an uptime of at least 99.5% during peak business hours.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4. The system must ensure accurate and real-time verification of KYC documents. The OCR and face match technology should have a minimum accuracy of 95%.</t>
+          <t>4. The system must support multi-lingual interface, specifically English and Hindi, as per the Official Languages Act, 1963.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5. The system must provide an OTP-based authentication for loan sanction and e-agreement signing. The OTP should be generated and delivered within 30 seconds.</t>
+          <t>5. The system must be able to complete the loan application process within a maximum of 2 hours, reducing the current TAT from 5 days.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6. The system must be integrated with the core banking system for loan disbursement. The integration should be secure and seamless, ensuring real-time data exchange.</t>
+          <t>6. The system must ensure 90% accuracy in eligibility checks, to minimize the risk of loan default.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7. The system must be able to fetch credit scores from Experian or CIBIL accurately and in real-time.</t>
+          <t>7. The system must ensure real-time verification of KYC documents with an accuracy of 80% to reduce manual data entry.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8. The system must support both English and Hindi languages. All features, instructions, and communications should be available in both languages.</t>
+          <t>8. The system must be able to integrate with credit bureaus (CIBIL and Experian) for fetching credit scores, complying with the Credit Information Companies (Regulation) Act, 2005.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9. The system must ensure that loan disbursement is only done through verified bank accounts. The verification process should be robust and secure.</t>
+          <t>9. The system must ensure secure OTP-based authentication for e-agreement signing and loan disbursement, as per the guidelines of the Reserve Bank of India.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10. The system must be responsive and compatible with different devices and browsers. The web app should load within 3 seconds on any device or browser.</t>
+          <t>10. The system must be able to integrate with core banking for loan disbursement, ensuring secure and seamless transactions.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11. The system must ensure that the TAT for loan application and approval is reduced to 2 hours. The TAT should be measured from the time of application submission to the time of loan approval.</t>
+          <t>11. The system must be able to support the use of DigiLocker for e-sign integration, as per the guidelines of the Ministry of Electronics and Information Technology (MeitY).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12. The system must ensure a minimum of 80% reduction in manual data entry. The reduction should be measured by comparing the manual data entry before and after the implementation of the system.</t>
+          <t>12. The system must ensure that loan disbursement is only through verified bank accounts, as per the Prevention of Money Laundering Act, 2002.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13. The system must ensure a minimum of 90% accuracy in eligibility checks. The accuracy should be measured by comparing the system's eligibility check results with manual checks.</t>
+          <t>13. The system must be ready for UAT by 1st June 2025 and go-live by 1st July 2025, as per the project timeline.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14. The system must be ready for UAT by 1 June 2025 and go live by 1 July 2025. Any delays in these timelines must be escalated and addressed promptly.</t>
+          <t>14. The system must be adaptable to compliance changes due to upcoming RBI guidelines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15. The system must ensure that the AI-based eligibility and risk assessment module complies with the AI Ethics Guidelines set by the Ministry of Electronics and Information Technology (MeitY).</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,105 +450,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. The system must be able to handle a high volume of simultaneous loan applications without performance degradation.</t>
+          <t>1. The online platform must be compliant with the data privacy and protection regulations, ensuring that customer's personal and financial data is securely stored and processed.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. The system must ensure the privacy and security of customer data, including Aadhaar/PAN details, credit scores, and KYC documents. Compliance with the Indian IT Act 2000 and the Aadhaar Act 2016 is mandatory.</t>
+          <t>2. The system must ensure the accuracy of the OCR and face match verification process, with a minimum of 90% accuracy to reduce errors in KYC document verification.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3. The system must have an uptime of at least 99.5% during peak business hours.</t>
+          <t>3. The AI-based eligibility and risk assessment module must be transparent, fair, and explainable, complying with AI ethics and regulations.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4. The system must support multi-lingual interface, specifically English and Hindi, as per the Official Languages Act, 1963.</t>
+          <t>4. The system must support multi-language (English and Hindi) to comply with the language policy of the region.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5. The system must be able to complete the loan application process within a maximum of 2 hours, reducing the current TAT from 5 days.</t>
+          <t>5. The system must ensure secure integration with credit bureau (CIBIL) and core banking for disbursement, complying with the data sharing and security regulations.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6. The system must ensure 90% accuracy in eligibility checks, to minimize the risk of loan default.</t>
+          <t>6. The system must ensure that the loan disbursement is only done through verified bank accounts, complying with anti-money laundering (AML) and Know Your Customer (KYC) regulations.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7. The system must ensure real-time verification of KYC documents with an accuracy of 80% to reduce manual data entry.</t>
+          <t>7. The system must ensure secure OTP-based authentication for loan sanction and e-agreement signing, complying with digital signature regulations.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8. The system must be able to integrate with credit bureaus (CIBIL and Experian) for fetching credit scores, complying with the Credit Information Companies (Regulation) Act, 2005.</t>
+          <t>8. The system must ensure that the customer's Aadhaar-linked mobile number is used for verification and communication, complying with the Aadhaar Act.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9. The system must ensure secure OTP-based authentication for e-agreement signing and loan disbursement, as per the guidelines of the Reserve Bank of India.</t>
+          <t>9. The system must be able to handle the expected load and traffic, ensuring a minimum uptime of 99.9% to ensure continuous service availability.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10. The system must be able to integrate with core banking for loan disbursement, ensuring secure and seamless transactions.</t>
+          <t>10. The system must ensure that the turnaround time (TAT) for loan application and approval is reduced from 5 days to 2 hours, complying with the customer service standards set by the bank.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11. The system must be able to support the use of DigiLocker for e-sign integration, as per the guidelines of the Ministry of Electronics and Information Technology (MeitY).</t>
+          <t>11. The system must ensure that there is an 80% reduction in manual data entry, complying with the bank's digital transformation objectives.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12. The system must ensure that loan disbursement is only through verified bank accounts, as per the Prevention of Money Laundering Act, 2002.</t>
+          <t>12. The system must be ready for deployment by 1 July 2025, complying with the project timeline.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13. The system must be ready for UAT by 1st June 2025 and go-live by 1st July 2025, as per the project timeline.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>14. The system must be adaptable to compliance changes due to upcoming RBI guidelines.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>15. The system must ensure that the AI-based eligibility and risk assessment module complies with the AI Ethics Guidelines set by the Ministry of Electronics and Information Technology (MeitY).</t>
+          <t>13. The system must be flexible to accommodate compliance changes due to upcoming RBI guidelines.</t>
         </is>
       </c>
     </row>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Compliance Rules</t>
+  </si>
+  <si>
+    <t>NFR Compliance Rules:</t>
+  </si>
+  <si>
+    <t>1. The online platform must be accessible 24/7 with a maximum downtime of 0.5% annually.</t>
+  </si>
+  <si>
+    <t>2. The system must provide real-time KYC document verification using OCR and face match technology.</t>
+  </si>
+  <si>
+    <t>3. The system must integrate with credit bureaus (CIBIL) to fetch credit scores and must ensure the confidentiality and security of the customer's credit information.</t>
+  </si>
+  <si>
+    <t>4. The AI-based eligibility and risk assessment module must comply with all applicable laws and regulations, including data privacy and AI ethics guidelines.</t>
+  </si>
+  <si>
+    <t>5. The system must support OTP-based authentication for loan sanction and e-agreement signing, ensuring the security of the transaction.</t>
+  </si>
+  <si>
+    <t>6. The system must integrate with core banking for disbursement, ensuring seamless and secure transactions.</t>
+  </si>
+  <si>
+    <t>7. The system must ensure the confidentiality and security of Aadhaar/PAN card details during the OCR and verification process.</t>
+  </si>
+  <si>
+    <t>8. The system must support both English and Hindi languages, ensuring accessibility for a wider customer base.</t>
+  </si>
+  <si>
+    <t>9. The system must ensure that loan disbursement is only through verified bank accounts, ensuring the security of transactions and compliance with anti-money laundering regulations.</t>
+  </si>
+  <si>
+    <t>10. The system must be responsive and compatible with various devices and browsers, ensuring accessibility for all customers.</t>
+  </si>
+  <si>
+    <t>11. The system must ensure a 90% accuracy rate in eligibility checks, ensuring fair and accurate loan approval processes.</t>
+  </si>
+  <si>
+    <t>12. The system must be capable of reducing the Turnaround Time (TAT) from 5 days to 2 hours, improving efficiency.</t>
+  </si>
+  <si>
+    <t>13. The system must ensure an 80% reduction in manual data entry, reducing the risk of human error and improving efficiency.</t>
+  </si>
+  <si>
+    <t>14. The system must be ready for UAT by 1 June 2025 and go-live by 1 July 2025, ensuring timely project completion.</t>
+  </si>
+  <si>
+    <t>15. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines, ensuring ongoing compliance with regulatory changes.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,125 +421,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compliance Rules</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NFR Compliance Rules:</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1. The online platform must be compliant with the data privacy and protection regulations, ensuring that customer's personal and financial data is securely stored and processed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2. The system must ensure the accuracy of the OCR and face match verification process, with a minimum of 90% accuracy to reduce errors in KYC document verification.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3. The AI-based eligibility and risk assessment module must be transparent, fair, and explainable, complying with AI ethics and regulations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4. The system must support multi-language (English and Hindi) to comply with the language policy of the region.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5. The system must ensure secure integration with credit bureau (CIBIL) and core banking for disbursement, complying with the data sharing and security regulations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6. The system must ensure that the loan disbursement is only done through verified bank accounts, complying with anti-money laundering (AML) and Know Your Customer (KYC) regulations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7. The system must ensure secure OTP-based authentication for loan sanction and e-agreement signing, complying with digital signature regulations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8. The system must ensure that the customer's Aadhaar-linked mobile number is used for verification and communication, complying with the Aadhaar Act.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9. The system must be able to handle the expected load and traffic, ensuring a minimum uptime of 99.9% to ensure continuous service availability.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10. The system must ensure that the turnaround time (TAT) for loan application and approval is reduced from 5 days to 2 hours, complying with the customer service standards set by the bank.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11. The system must ensure that there is an 80% reduction in manual data entry, complying with the bank's digital transformation objectives.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12. The system must be ready for deployment by 1 July 2025, complying with the project timeline.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>13. The system must be flexible to accommodate compliance changes due to upcoming RBI guidelines.</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Compliance Rules</t>
   </si>
@@ -22,49 +22,40 @@
     <t>NFR Compliance Rules:</t>
   </si>
   <si>
-    <t>1. The online platform must be accessible 24/7 with a maximum downtime of 0.5% annually.</t>
-  </si>
-  <si>
-    <t>2. The system must provide real-time KYC document verification using OCR and face match technology.</t>
-  </si>
-  <si>
-    <t>3. The system must integrate with credit bureaus (CIBIL) to fetch credit scores and must ensure the confidentiality and security of the customer's credit information.</t>
-  </si>
-  <si>
-    <t>4. The AI-based eligibility and risk assessment module must comply with all applicable laws and regulations, including data privacy and AI ethics guidelines.</t>
-  </si>
-  <si>
-    <t>5. The system must support OTP-based authentication for loan sanction and e-agreement signing, ensuring the security of the transaction.</t>
-  </si>
-  <si>
-    <t>6. The system must integrate with core banking for disbursement, ensuring seamless and secure transactions.</t>
-  </si>
-  <si>
-    <t>7. The system must ensure the confidentiality and security of Aadhaar/PAN card details during the OCR and verification process.</t>
-  </si>
-  <si>
-    <t>8. The system must support both English and Hindi languages, ensuring accessibility for a wider customer base.</t>
-  </si>
-  <si>
-    <t>9. The system must ensure that loan disbursement is only through verified bank accounts, ensuring the security of transactions and compliance with anti-money laundering regulations.</t>
-  </si>
-  <si>
-    <t>10. The system must be responsive and compatible with various devices and browsers, ensuring accessibility for all customers.</t>
-  </si>
-  <si>
-    <t>11. The system must ensure a 90% accuracy rate in eligibility checks, ensuring fair and accurate loan approval processes.</t>
-  </si>
-  <si>
-    <t>12. The system must be capable of reducing the Turnaround Time (TAT) from 5 days to 2 hours, improving efficiency.</t>
-  </si>
-  <si>
-    <t>13. The system must ensure an 80% reduction in manual data entry, reducing the risk of human error and improving efficiency.</t>
-  </si>
-  <si>
-    <t>14. The system must be ready for UAT by 1 June 2025 and go-live by 1 July 2025, ensuring timely project completion.</t>
-  </si>
-  <si>
-    <t>15. The system must be prepared to adapt to compliance changes due to upcoming RBI guidelines, ensuring ongoing compliance with regulatory changes.</t>
+    <t>1. The system must be capable of securely storing and processing sensitive customer data, including Aadhaar and PAN details, in compliance with the Information Technology Act, 2000 and the Aadhaar Act, 2016.</t>
+  </si>
+  <si>
+    <t>2. The system must ensure real-time KYC document verification (OCR + face match) in accordance with the KYC norms laid down by the Reserve Bank of India (RBI).</t>
+  </si>
+  <si>
+    <t>3. The system must be integrated with credit bureaus (CIBIL or Experian) to fetch credit scores, ensuring compliance with the Credit Information Companies (Regulation) Act, 2005.</t>
+  </si>
+  <si>
+    <t>4. The system must ensure that the AI-based eligibility and risk assessment module is transparent, fair, and non-discriminatory, in line with the principles of AI ethics and RBI guidelines.</t>
+  </si>
+  <si>
+    <t>5. The system must ensure secure OTP-based authentication for loan sanction and e-agreement signing, in compliance with the Information Technology (Reasonable Security Practices and Procedures and Sensitive Personal Data or Information) Rules, 2011.</t>
+  </si>
+  <si>
+    <t>6. The system must ensure secure integration with core banking for disbursement, in compliance with the Banking Regulation Act, 1949.</t>
+  </si>
+  <si>
+    <t>7. The system must support English and Hindi languages, ensuring compliance with the Official Languages Act, 1963.</t>
+  </si>
+  <si>
+    <t>8. The system must ensure that loan disbursement is only through verified bank accounts, in compliance with the Prevention of Money Laundering Act, 2002.</t>
+  </si>
+  <si>
+    <t>9. The system must ensure that the digital loan application and approval process is accessible to persons with disabilities, in compliance with the Rights of Persons with Disabilities Act, 2016.</t>
+  </si>
+  <si>
+    <t>10. The system must ensure that any delay in API access to credit bureau does not compromise the customer's right to timely loan approval, in compliance with the Consumer Protection Act, 2019.</t>
+  </si>
+  <si>
+    <t>11. The system must ensure that it is capable of adapting to compliance changes due to upcoming RBI guidelines.</t>
+  </si>
+  <si>
+    <t>12. The system must ensure that it meets the success metrics of reducing TAT from 5 days to 2 hours, 80% reduction in manual data entry, and 90% accuracy in eligibility checks, in compliance with the Fair Practices Code for Lenders as prescribed by the RBI.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,21 +489,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Compliance Rules</t>
   </si>
@@ -22,40 +22,43 @@
     <t>NFR Compliance Rules:</t>
   </si>
   <si>
-    <t>1. The system must be capable of securely storing and processing sensitive customer data, including Aadhaar and PAN details, in compliance with the Information Technology Act, 2000 and the Aadhaar Act, 2016.</t>
-  </si>
-  <si>
-    <t>2. The system must ensure real-time KYC document verification (OCR + face match) in accordance with the KYC norms laid down by the Reserve Bank of India (RBI).</t>
-  </si>
-  <si>
-    <t>3. The system must be integrated with credit bureaus (CIBIL or Experian) to fetch credit scores, ensuring compliance with the Credit Information Companies (Regulation) Act, 2005.</t>
-  </si>
-  <si>
-    <t>4. The system must ensure that the AI-based eligibility and risk assessment module is transparent, fair, and non-discriminatory, in line with the principles of AI ethics and RBI guidelines.</t>
-  </si>
-  <si>
-    <t>5. The system must ensure secure OTP-based authentication for loan sanction and e-agreement signing, in compliance with the Information Technology (Reasonable Security Practices and Procedures and Sensitive Personal Data or Information) Rules, 2011.</t>
-  </si>
-  <si>
-    <t>6. The system must ensure secure integration with core banking for disbursement, in compliance with the Banking Regulation Act, 1949.</t>
-  </si>
-  <si>
-    <t>7. The system must support English and Hindi languages, ensuring compliance with the Official Languages Act, 1963.</t>
-  </si>
-  <si>
-    <t>8. The system must ensure that loan disbursement is only through verified bank accounts, in compliance with the Prevention of Money Laundering Act, 2002.</t>
-  </si>
-  <si>
-    <t>9. The system must ensure that the digital loan application and approval process is accessible to persons with disabilities, in compliance with the Rights of Persons with Disabilities Act, 2016.</t>
-  </si>
-  <si>
-    <t>10. The system must ensure that any delay in API access to credit bureau does not compromise the customer's right to timely loan approval, in compliance with the Consumer Protection Act, 2019.</t>
-  </si>
-  <si>
-    <t>11. The system must ensure that it is capable of adapting to compliance changes due to upcoming RBI guidelines.</t>
-  </si>
-  <si>
-    <t>12. The system must ensure that it meets the success metrics of reducing TAT from 5 days to 2 hours, 80% reduction in manual data entry, and 90% accuracy in eligibility checks, in compliance with the Fair Practices Code for Lenders as prescribed by the RBI.</t>
+    <t>1. The system must be capable of securely storing and processing personal data such as Aadhaar and PAN details, in compliance with the Data Protection Act.</t>
+  </si>
+  <si>
+    <t>2. The system must be able to integrate with credit bureau (CIBIL) APIs to fetch credit scores in real-time, ensuring no delays or errors.</t>
+  </si>
+  <si>
+    <t>3. The AI-based eligibility and risk assessment module must comply with the Fair Credit Reporting Act, ensuring that all credit decisions are fair, accurate, and impartial.</t>
+  </si>
+  <si>
+    <t>4. The system must comply with Know Your Customer (KYC) regulations, including real-time document verification (OCR + face match).</t>
+  </si>
+  <si>
+    <t>5. The system must support OTP-based authentication for loan sanction and e-agreement signing, in compliance with the Electronic Signatures in Global and National Commerce Act.</t>
+  </si>
+  <si>
+    <t>6. The system must integrate with the bank's core banking system for disbursement, ensuring seamless and secure transactions.</t>
+  </si>
+  <si>
+    <t>7. The system must support both English and Hindi languages, ensuring accessibility and usability for a diverse user base.</t>
+  </si>
+  <si>
+    <t>8. The system must only disburse loans through verified bank accounts, in compliance with Anti-Money Laundering (AML) regulations.</t>
+  </si>
+  <si>
+    <t>9. The system must be able to handle any potential compliance changes due to upcoming RBI guidelines, ensuring the flexibility and adaptability of the system.</t>
+  </si>
+  <si>
+    <t>10. The system must be able to reduce the Turnaround Time (TAT) from 5 days to 2 hours, ensuring efficiency and speed in loan processing.</t>
+  </si>
+  <si>
+    <t>11. The system must achieve an 80% reduction in manual data entry and a 90% accuracy in eligibility checks, ensuring accuracy and efficiency in loan processing.</t>
+  </si>
+  <si>
+    <t>12. The system must be a responsive web app, ensuring accessibility and usability across various devices and platforms.</t>
+  </si>
+  <si>
+    <t>13. The system must comply with the Accessibility for Ontarians with Disabilities Act (AODA), ensuring that it is accessible to people with disabilities.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,6 +492,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Compliance Rules</t>
   </si>
@@ -22,43 +22,49 @@
     <t>NFR Compliance Rules:</t>
   </si>
   <si>
-    <t>1. The system must be capable of securely storing and processing personal data such as Aadhaar and PAN details, in compliance with the Data Protection Act.</t>
-  </si>
-  <si>
-    <t>2. The system must be able to integrate with credit bureau (CIBIL) APIs to fetch credit scores in real-time, ensuring no delays or errors.</t>
-  </si>
-  <si>
-    <t>3. The AI-based eligibility and risk assessment module must comply with the Fair Credit Reporting Act, ensuring that all credit decisions are fair, accurate, and impartial.</t>
-  </si>
-  <si>
-    <t>4. The system must comply with Know Your Customer (KYC) regulations, including real-time document verification (OCR + face match).</t>
-  </si>
-  <si>
-    <t>5. The system must support OTP-based authentication for loan sanction and e-agreement signing, in compliance with the Electronic Signatures in Global and National Commerce Act.</t>
-  </si>
-  <si>
-    <t>6. The system must integrate with the bank's core banking system for disbursement, ensuring seamless and secure transactions.</t>
-  </si>
-  <si>
-    <t>7. The system must support both English and Hindi languages, ensuring accessibility and usability for a diverse user base.</t>
-  </si>
-  <si>
-    <t>8. The system must only disburse loans through verified bank accounts, in compliance with Anti-Money Laundering (AML) regulations.</t>
-  </si>
-  <si>
-    <t>9. The system must be able to handle any potential compliance changes due to upcoming RBI guidelines, ensuring the flexibility and adaptability of the system.</t>
-  </si>
-  <si>
-    <t>10. The system must be able to reduce the Turnaround Time (TAT) from 5 days to 2 hours, ensuring efficiency and speed in loan processing.</t>
-  </si>
-  <si>
-    <t>11. The system must achieve an 80% reduction in manual data entry and a 90% accuracy in eligibility checks, ensuring accuracy and efficiency in loan processing.</t>
-  </si>
-  <si>
-    <t>12. The system must be a responsive web app, ensuring accessibility and usability across various devices and platforms.</t>
-  </si>
-  <si>
-    <t>13. The system must comply with the Accessibility for Ontarians with Disabilities Act (AODA), ensuring that it is accessible to people with disabilities.</t>
+    <t>1. The online platform must be designed in a way that ensures the digitization of the loan origination process for personal loans at XYZ Bank. This includes the ability for customers to apply, get an eligibility assessment, upload KYC documents, track the application status, and receive approval digitally for personal loans.</t>
+  </si>
+  <si>
+    <t>2. The platform must include an online loan application form that supports Aadhaar/PAN-based prefill.</t>
+  </si>
+  <si>
+    <t>3. The platform must be able to fetch credit scores from CIBIL for the purpose of assessing customer eligibility.</t>
+  </si>
+  <si>
+    <t>4. The platform should incorporate an AI-based risk assessment module to evaluate the risk profile of the loan applicants.</t>
+  </si>
+  <si>
+    <t>5. The platform must have a real-time document verification feature to ensure the authenticity of the documents uploaded by the customers.</t>
+  </si>
+  <si>
+    <t>6. The platform must support OTP-based agreement signing to ensure the security and authenticity of the agreement between the bank and the customer.</t>
+  </si>
+  <si>
+    <t>7. The platform must be integrated with the core banking system for the disbursement of loans.</t>
+  </si>
+  <si>
+    <t>8. The platform must be able to handle API integration with the Credit Bureau. In case of delay in API access, alternative solutions must be in place to ensure the progress of the project.</t>
+  </si>
+  <si>
+    <t>9. The platform must be user-friendly and intuitive to ensure customer adaptation, especially for those customers who are not comfortable with digital onboarding.</t>
+  </si>
+  <si>
+    <t>10. The platform must be flexible and adaptable to accommodate compliance changes due to upcoming RBI guidelines.</t>
+  </si>
+  <si>
+    <t>11. The platform development should start by 1st April 2025 and User Acceptance Testing (UAT) should be scheduled for 1st June 2025.</t>
+  </si>
+  <si>
+    <t>12. The platform should be ready to go live on 1st July 2025, ensuring all the requirements are met and all the blockers are addressed.</t>
+  </si>
+  <si>
+    <t>13. The platform must comply with all the data privacy and security regulations to protect the sensitive information of the customers.</t>
+  </si>
+  <si>
+    <t>14. The platform must have a robust error handling and reporting mechanism to ensure any issues are identified and addressed promptly.</t>
+  </si>
+  <si>
+    <t>15. The platform should have a feature to track the application status, providing real-time updates to the customers about their loan application.</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,6 +503,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -22,49 +22,49 @@
     <t>NFR Compliance Rules:</t>
   </si>
   <si>
-    <t>1. The online platform must be designed in a way that ensures the digitization of the loan origination process for personal loans at XYZ Bank. This includes the ability for customers to apply, get an eligibility assessment, upload KYC documents, track the application status, and receive approval digitally for personal loans.</t>
-  </si>
-  <si>
-    <t>2. The platform must include an online loan application form that supports Aadhaar/PAN-based prefill.</t>
-  </si>
-  <si>
-    <t>3. The platform must be able to fetch credit scores from CIBIL for the purpose of assessing customer eligibility.</t>
-  </si>
-  <si>
-    <t>4. The platform should incorporate an AI-based risk assessment module to evaluate the risk profile of the loan applicants.</t>
-  </si>
-  <si>
-    <t>5. The platform must have a real-time document verification feature to ensure the authenticity of the documents uploaded by the customers.</t>
-  </si>
-  <si>
-    <t>6. The platform must support OTP-based agreement signing to ensure the security and authenticity of the agreement between the bank and the customer.</t>
-  </si>
-  <si>
-    <t>7. The platform must be integrated with the core banking system for the disbursement of loans.</t>
-  </si>
-  <si>
-    <t>8. The platform must be able to handle API integration with the Credit Bureau. In case of delay in API access, alternative solutions must be in place to ensure the progress of the project.</t>
-  </si>
-  <si>
-    <t>9. The platform must be user-friendly and intuitive to ensure customer adaptation, especially for those customers who are not comfortable with digital onboarding.</t>
-  </si>
-  <si>
-    <t>10. The platform must be flexible and adaptable to accommodate compliance changes due to upcoming RBI guidelines.</t>
-  </si>
-  <si>
-    <t>11. The platform development should start by 1st April 2025 and User Acceptance Testing (UAT) should be scheduled for 1st June 2025.</t>
-  </si>
-  <si>
-    <t>12. The platform should be ready to go live on 1st July 2025, ensuring all the requirements are met and all the blockers are addressed.</t>
-  </si>
-  <si>
-    <t>13. The platform must comply with all the data privacy and security regulations to protect the sensitive information of the customers.</t>
-  </si>
-  <si>
-    <t>14. The platform must have a robust error handling and reporting mechanism to ensure any issues are identified and addressed promptly.</t>
-  </si>
-  <si>
-    <t>15. The platform should have a feature to track the application status, providing real-time updates to the customers about their loan application.</t>
+    <t>1. The Digital Loan Application and Approval System must be accessible and responsive on all standard web browsers and devices.</t>
+  </si>
+  <si>
+    <t>2. The system must be able to accurately read and extract data from Aadhaar/PAN using OCR technology.</t>
+  </si>
+  <si>
+    <t>3. The AI-based eligibility module must ensure a minimum accuracy of 90% in eligibility checks.</t>
+  </si>
+  <si>
+    <t>4. The system should integrate with CIBIL for credit scoring and the integration must not delay the loan application process.</t>
+  </si>
+  <si>
+    <t>5. The system must support real-time KYC verification, ensuring the process is compliant with RBI guidelines and any upcoming changes to these guidelines.</t>
+  </si>
+  <si>
+    <t>6. The loan approval process must include a secure OTP mechanism, ensuring that only the intended recipient can approve the loan.</t>
+  </si>
+  <si>
+    <t>7. The system must integrate with the bank's existing systems to facilitate loan disbursement, and this disbursement should only be completed through verified bank accounts.</t>
+  </si>
+  <si>
+    <t>8. The system must not include modules for home, car, and business loans or agent-assisted processes for Tier 3 regions.</t>
+  </si>
+  <si>
+    <t>9. The system must be developed and ready for User Acceptance Testing (UAT) by June 1, 2025, and go live by July 1, 2025.</t>
+  </si>
+  <si>
+    <t>10. The system must support English language.</t>
+  </si>
+  <si>
+    <t>11. The system must reduce manual data entry by at least 80%.</t>
+  </si>
+  <si>
+    <t>12. The system must reduce the loan application and approval turnaround time from five days to two hours.</t>
+  </si>
+  <si>
+    <t>13. The system must ensure that all clients have an Aadhaar-linked mobile number for OTP verification.</t>
+  </si>
+  <si>
+    <t>14. The system must be compliant with the DigiLocker + Aadhaar eKYC for e-signature.</t>
+  </si>
+  <si>
+    <t>15. The system must provide a loan status dashboard that is updated in real-time.</t>
   </si>
 </sst>
 </file>

--- a/src/outputs/compliance_rules.xlsx
+++ b/src/outputs/compliance_rules.xlsx
@@ -14,57 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Compliance Rules</t>
   </si>
   <si>
-    <t>NFR Compliance Rules:</t>
-  </si>
-  <si>
-    <t>1. The Digital Loan Application and Approval System must be accessible and responsive on all standard web browsers and devices.</t>
-  </si>
-  <si>
-    <t>2. The system must be able to accurately read and extract data from Aadhaar/PAN using OCR technology.</t>
-  </si>
-  <si>
-    <t>3. The AI-based eligibility module must ensure a minimum accuracy of 90% in eligibility checks.</t>
-  </si>
-  <si>
-    <t>4. The system should integrate with CIBIL for credit scoring and the integration must not delay the loan application process.</t>
-  </si>
-  <si>
-    <t>5. The system must support real-time KYC verification, ensuring the process is compliant with RBI guidelines and any upcoming changes to these guidelines.</t>
-  </si>
-  <si>
-    <t>6. The loan approval process must include a secure OTP mechanism, ensuring that only the intended recipient can approve the loan.</t>
-  </si>
-  <si>
-    <t>7. The system must integrate with the bank's existing systems to facilitate loan disbursement, and this disbursement should only be completed through verified bank accounts.</t>
-  </si>
-  <si>
-    <t>8. The system must not include modules for home, car, and business loans or agent-assisted processes for Tier 3 regions.</t>
-  </si>
-  <si>
-    <t>9. The system must be developed and ready for User Acceptance Testing (UAT) by June 1, 2025, and go live by July 1, 2025.</t>
-  </si>
-  <si>
-    <t>10. The system must support English language.</t>
-  </si>
-  <si>
-    <t>11. The system must reduce manual data entry by at least 80%.</t>
-  </si>
-  <si>
-    <t>12. The system must reduce the loan application and approval turnaround time from five days to two hours.</t>
-  </si>
-  <si>
-    <t>13. The system must ensure that all clients have an Aadhaar-linked mobile number for OTP verification.</t>
-  </si>
-  <si>
-    <t>14. The system must be compliant with the DigiLocker + Aadhaar eKYC for e-signature.</t>
-  </si>
-  <si>
-    <t>15. The system must provide a loan status dashboard that is updated in real-time.</t>
+    <t>1. **Performance** - The Digital Loan Application and Approval System should have a response time of less than 2 seconds.</t>
+  </si>
+  <si>
+    <t>- Justification: To ensure a smooth and efficient user experience, it is crucial that the system responds quickly to user actions.</t>
+  </si>
+  <si>
+    <t>2. **Scalability** - The system should be able to handle a minimum of 10,000 concurrent users.</t>
+  </si>
+  <si>
+    <t>- Justification: As a banking application, the system should be designed to handle high traffic volumes to cater to all potential customers.</t>
+  </si>
+  <si>
+    <t>3. **Security** - All customer data, including KYC documents and loan application details, must be encrypted both at rest and in transit.</t>
+  </si>
+  <si>
+    <t>- Justification: This rule is crucial to protect sensitive customer data and to comply with data privacy regulations.</t>
+  </si>
+  <si>
+    <t>4. **Usability** - The web application should be responsive and compatible with all major browsers and devices.</t>
+  </si>
+  <si>
+    <t>- Justification: To ensure accessibility for all users, regardless of their device or browser choice.</t>
+  </si>
+  <si>
+    <t>5. **Maintainability** - The system should be designed in a modular manner to allow for easy updates and maintenance.</t>
+  </si>
+  <si>
+    <t>- Justification: A modular design will make it easier to update or modify specific components of the system without affecting the entire application.</t>
+  </si>
+  <si>
+    <t>6. **Availability** - The system should have a minimum uptime of 99.9%.</t>
+  </si>
+  <si>
+    <t>- Justification: As a banking service, it is critical that the system is available for customers to use at all times.</t>
+  </si>
+  <si>
+    <t>7. **Compliance** - The system must comply with all RBI guidelines and any other relevant financial regulations.</t>
+  </si>
+  <si>
+    <t>- Justification: Compliance with regulatory guidelines is mandatory for any financial system to operate legally and ethically.</t>
+  </si>
+  <si>
+    <t>8. **Security** - The system should implement two-factor authentication for all users.</t>
+  </si>
+  <si>
+    <t>- Justification: Two-factor authentication provides an additional layer of security, protecting against unauthorized access to user accounts.</t>
+  </si>
+  <si>
+    <t>9. **Performance** - The AI-based risk assessment module should provide results within 5 seconds of receiving the necessary inputs.</t>
+  </si>
+  <si>
+    <t>- Justification: Quick risk assessment is crucial to maintaining a smooth user experience and efficient loan processing.</t>
+  </si>
+  <si>
+    <t>10. **Compliance** - The system should only disburse loans to verified bank accounts.</t>
+  </si>
+  <si>
+    <t>- Justification: This rule is important to prevent fraudulent transactions and comply with anti-money laundering regulations.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +525,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
